--- a/6月/途礼商城/开发环境/基础测试/测试结果/商品详情页面 - vera.xlsx
+++ b/6月/途礼商城/开发环境/基础测试/测试结果/商品详情页面 - vera.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8220" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户已登录" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="202">
   <si>
     <t>撰写人</t>
   </si>
@@ -591,6 +591,9 @@
   </si>
   <si>
     <t>最近浏览栏</t>
+  </si>
+  <si>
+    <t>vera</t>
   </si>
   <si>
     <t>正确显示"登录，我的订单，购物车，FAQ"</t>
@@ -628,9 +631,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -666,22 +669,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -689,31 +686,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,15 +716,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,6 +756,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,30 +792,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,7 +826,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,7 +910,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,7 +928,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,13 +970,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,25 +988,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,103 +1006,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,6 +1061,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1067,19 +1083,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1125,11 +1128,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,7 +1147,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,17 +1182,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1177,18 +1197,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1208,165 +1217,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1377,7 +1380,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1386,13 +1389,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1411,9 +1417,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1429,54 +1432,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1492,7 +1495,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="303030"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1751,7 +1754,7 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="20.25" customWidth="1"/>
@@ -1823,32 +1826,32 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="16"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="18"/>
     </row>
     <row r="5" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="19" t="s">
@@ -1859,1821 +1862,1821 @@
       </c>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:10">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="12"/>
+      <c r="F6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="13"/>
       <c r="J6" s="21"/>
     </row>
     <row r="7" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="14"/>
+      <c r="F7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="15"/>
       <c r="J7" s="22"/>
     </row>
     <row r="8" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="12"/>
+      <c r="F8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="13"/>
       <c r="J8" s="21"/>
     </row>
     <row r="9" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="14"/>
+      <c r="F9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="15"/>
       <c r="J9" s="22"/>
     </row>
     <row r="10" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="12"/>
+      <c r="F10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="13"/>
       <c r="J10" s="21"/>
     </row>
     <row r="11" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="14"/>
+      <c r="F11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="15"/>
       <c r="J11" s="22"/>
     </row>
     <row r="12" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="12"/>
+      <c r="F12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="13"/>
       <c r="J12" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="14" t="s">
+      <c r="F13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="15" t="s">
         <v>42</v>
       </c>
       <c r="J13" s="22"/>
     </row>
     <row r="14" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="12"/>
+      <c r="F14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="13"/>
       <c r="J14" s="21"/>
     </row>
     <row r="15" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="14"/>
+      <c r="F15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="15"/>
       <c r="J15" s="22"/>
     </row>
     <row r="16" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="12"/>
+      <c r="F16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="13"/>
       <c r="J16" s="21"/>
     </row>
     <row r="17" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="14"/>
+      <c r="F17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="15"/>
       <c r="J17" s="22"/>
     </row>
     <row r="18" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="12"/>
+      <c r="F18" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="13"/>
       <c r="J18" s="21"/>
     </row>
     <row r="19" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="14"/>
+      <c r="F19" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="15"/>
       <c r="J19" s="22"/>
     </row>
     <row r="20" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="12"/>
+      <c r="F20" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="13"/>
       <c r="J20" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="14"/>
+      <c r="F21" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="15"/>
       <c r="J21" s="22"/>
     </row>
     <row r="22" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="12"/>
+      <c r="F22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="13"/>
       <c r="J22" s="21"/>
     </row>
     <row r="23" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="14"/>
+      <c r="F23" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="15"/>
       <c r="J23" s="22"/>
     </row>
     <row r="24" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="12" t="s">
+      <c r="F24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="13" t="s">
         <v>68</v>
       </c>
       <c r="J24" s="21"/>
     </row>
     <row r="25" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="14" t="s">
+      <c r="F25" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="15" t="s">
         <v>70</v>
       </c>
       <c r="J25" s="22"/>
     </row>
     <row r="26" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="12"/>
+      <c r="F26" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="13"/>
       <c r="J26" s="21"/>
     </row>
     <row r="27" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="14"/>
+      <c r="F27" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="15"/>
       <c r="J27" s="22"/>
     </row>
     <row r="28" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="12"/>
+      <c r="F28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="13"/>
       <c r="J28" s="21"/>
     </row>
     <row r="29" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="14"/>
+      <c r="F29" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="15"/>
       <c r="J29" s="22"/>
     </row>
     <row r="30" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="12"/>
+      <c r="F30" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="13"/>
       <c r="J30" s="21"/>
     </row>
     <row r="31" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="14"/>
+      <c r="F31" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="15"/>
       <c r="J31" s="22"/>
     </row>
     <row r="32" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="12"/>
+      <c r="F32" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="13"/>
       <c r="J32" s="21"/>
     </row>
     <row r="33" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14" t="s">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="14" t="s">
+      <c r="F33" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="I33" s="15" t="s">
         <v>87</v>
       </c>
       <c r="J33" s="22"/>
     </row>
     <row r="34" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="12" t="s">
+      <c r="F34" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="13" t="s">
         <v>90</v>
       </c>
       <c r="J34" s="21"/>
     </row>
     <row r="35" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14" t="s">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="14"/>
+      <c r="F35" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="15"/>
       <c r="J35" s="22"/>
     </row>
     <row r="36" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F36" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" s="12"/>
+      <c r="F36" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="13"/>
       <c r="J36" s="21"/>
     </row>
     <row r="37" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14" t="s">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="14"/>
+      <c r="F37" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="15"/>
       <c r="J37" s="22"/>
     </row>
     <row r="38" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12" t="s">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" s="12"/>
+      <c r="F38" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="13"/>
       <c r="J38" s="21"/>
     </row>
     <row r="39" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14" t="s">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="14"/>
+      <c r="F39" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="15"/>
       <c r="J39" s="22"/>
     </row>
     <row r="40" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12" t="s">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F40" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" s="12"/>
+      <c r="F40" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="13"/>
       <c r="J40" s="21"/>
     </row>
     <row r="41" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="F41" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I41" s="14"/>
+      <c r="F41" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="15"/>
       <c r="J41" s="22"/>
     </row>
     <row r="42" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12" t="s">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F42" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I42" s="12"/>
+      <c r="F42" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="13"/>
       <c r="J42" s="21"/>
     </row>
     <row r="43" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14" t="s">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F43" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I43" s="14"/>
+      <c r="F43" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="15"/>
       <c r="J43" s="22"/>
     </row>
     <row r="44" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12" t="s">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F44" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I44" s="12"/>
+      <c r="F44" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="13"/>
       <c r="J44" s="21"/>
     </row>
     <row r="45" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14" t="s">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="F45" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" s="14"/>
+      <c r="F45" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="15"/>
       <c r="J45" s="22"/>
     </row>
     <row r="46" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12" t="s">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F46" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H46" s="12" t="s">
+      <c r="F46" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="I46" s="13" t="s">
         <v>116</v>
       </c>
       <c r="J46" s="21"/>
     </row>
     <row r="47" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14" t="s">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="F47" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I47" s="14"/>
+      <c r="F47" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="15"/>
       <c r="J47" s="22"/>
     </row>
     <row r="48" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F48" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I48" s="12"/>
+      <c r="F48" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="13"/>
       <c r="J48" s="21"/>
     </row>
     <row r="49" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14" t="s">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F49" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="14" t="s">
+      <c r="F49" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I49" s="14" t="s">
+      <c r="I49" s="15" t="s">
         <v>124</v>
       </c>
       <c r="J49" s="22"/>
     </row>
     <row r="50" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="12" t="s">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F50" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I50" s="12"/>
+      <c r="F50" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="13"/>
       <c r="J50" s="21"/>
     </row>
     <row r="51" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14" t="s">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F51" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H51" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I51" s="14"/>
+      <c r="F51" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="15"/>
       <c r="J51" s="22"/>
     </row>
     <row r="52" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12" t="s">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="F52" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I52" s="12"/>
+      <c r="F52" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" s="13"/>
       <c r="J52" s="21"/>
     </row>
     <row r="53" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="14" t="s">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F53" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I53" s="14"/>
+      <c r="F53" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="15"/>
       <c r="J53" s="22"/>
     </row>
     <row r="54" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="12" t="s">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="F54" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I54" s="12"/>
+      <c r="F54" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" s="13"/>
       <c r="J54" s="21"/>
     </row>
     <row r="55" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14" t="s">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="F55" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H55" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I55" s="14"/>
+      <c r="F55" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="15"/>
       <c r="J55" s="22"/>
     </row>
     <row r="56" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="12" t="s">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F56" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I56" s="12"/>
+      <c r="F56" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="13"/>
       <c r="J56" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="57" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="14" t="s">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F57" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H57" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I57" s="14"/>
+      <c r="F57" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="15"/>
       <c r="J57" s="22"/>
     </row>
     <row r="58" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="12" t="s">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="E58" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F58" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I58" s="12"/>
+      <c r="F58" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" s="13"/>
       <c r="J58" s="21"/>
     </row>
     <row r="59" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="14" t="s">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E59" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="F59" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H59" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I59" s="14"/>
+      <c r="F59" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" s="15"/>
       <c r="J59" s="22"/>
     </row>
     <row r="60" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="12" t="s">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F60" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H60" s="12" t="s">
+      <c r="F60" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I60" s="12" t="s">
+      <c r="I60" s="13" t="s">
         <v>146</v>
       </c>
       <c r="J60" s="21"/>
     </row>
     <row r="61" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="14" t="s">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="F61" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H61" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I61" s="14"/>
+      <c r="F61" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I61" s="15"/>
       <c r="J61" s="22"/>
     </row>
     <row r="62" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="12" t="s">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="E62" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="F62" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I62" s="12"/>
+      <c r="F62" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" s="13"/>
       <c r="J62" s="21"/>
     </row>
     <row r="63" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14" t="s">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="F63" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H63" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I63" s="14"/>
+      <c r="F63" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" s="15"/>
       <c r="J63" s="22"/>
     </row>
     <row r="64" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="12" t="s">
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="F64" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H64" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I64" s="12"/>
+      <c r="F64" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" s="13"/>
       <c r="J64" s="21"/>
     </row>
     <row r="65" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14" t="s">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="F65" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H65" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I65" s="14"/>
+      <c r="F65" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65" s="15"/>
       <c r="J65" s="22"/>
     </row>
     <row r="66" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C66" s="12" t="s">
+      <c r="A66" s="12"/>
+      <c r="B66" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="E66" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F66" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I66" s="12"/>
+      <c r="F66" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" s="13"/>
       <c r="J66" s="21"/>
     </row>
     <row r="67" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14" t="s">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="F67" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G67" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H67" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I67" s="14"/>
+      <c r="F67" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="15"/>
       <c r="J67" s="22"/>
     </row>
     <row r="68" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12" t="s">
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E68" s="12" t="s">
+      <c r="E68" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F68" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H68" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I68" s="12"/>
+      <c r="F68" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" s="13"/>
       <c r="J68" s="21"/>
     </row>
     <row r="69" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14" t="s">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="F69" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G69" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H69" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I69" s="14"/>
+      <c r="F69" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I69" s="15"/>
       <c r="J69" s="22"/>
     </row>
     <row r="70" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="12" t="s">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E70" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="F70" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H70" s="12" t="s">
+      <c r="F70" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I70" s="12" t="s">
+      <c r="I70" s="13" t="s">
         <v>165</v>
       </c>
       <c r="J70" s="21"/>
     </row>
     <row r="71" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="14" t="s">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="F71" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G71" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H71" s="14" t="s">
+      <c r="F71" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H71" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I71" s="14" t="s">
+      <c r="I71" s="15" t="s">
         <v>169</v>
       </c>
       <c r="J71" s="22"/>
     </row>
     <row r="72" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12" t="s">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E72" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="F72" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H72" s="12" t="s">
+      <c r="F72" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I72" s="12" t="s">
+      <c r="I72" s="13" t="s">
         <v>172</v>
       </c>
       <c r="J72" s="21"/>
     </row>
     <row r="73" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="14" t="s">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="F73" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G73" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H73" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I73" s="14"/>
+      <c r="F73" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I73" s="15"/>
       <c r="J73" s="22"/>
     </row>
     <row r="74" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="12" t="s">
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D74" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E74" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="F74" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12" t="s">
+      <c r="F74" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I74" s="12" t="s">
+      <c r="I74" s="13" t="s">
         <v>178</v>
       </c>
       <c r="J74" s="21"/>
     </row>
     <row r="75" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14" t="s">
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="F75" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14" t="s">
+      <c r="F75" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I75" s="14" t="s">
+      <c r="I75" s="15" t="s">
         <v>181</v>
       </c>
       <c r="J75" s="22"/>
     </row>
     <row r="76" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="12" t="s">
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="D76" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="F76" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G76" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H76" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I76" s="12"/>
+      <c r="F76" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I76" s="13"/>
       <c r="J76" s="21"/>
     </row>
     <row r="77" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14" t="s">
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E77" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="F77" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G77" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H77" s="14" t="s">
+      <c r="F77" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H77" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I77" s="14" t="s">
+      <c r="I77" s="15" t="s">
         <v>186</v>
       </c>
       <c r="J77" s="22"/>
     </row>
     <row r="78" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12" t="s">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="E78" s="12" t="s">
+      <c r="E78" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="F78" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G78" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H78" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I78" s="12"/>
+      <c r="F78" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I78" s="13"/>
       <c r="J78" s="21"/>
     </row>
     <row r="79" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14" t="s">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="F79" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G79" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H79" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I79" s="14"/>
+      <c r="F79" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I79" s="15"/>
       <c r="J79" s="22"/>
     </row>
     <row r="80" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="12" t="s">
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D80" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E80" s="12" t="s">
+      <c r="E80" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="F80" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G80" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H80" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I80" s="12"/>
+      <c r="F80" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I80" s="13"/>
       <c r="J80" s="21"/>
     </row>
     <row r="81" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14" t="s">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="E81" s="14" t="s">
+      <c r="E81" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="F81" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G81" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H81" s="14" t="s">
+      <c r="F81" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H81" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I81" s="14" t="s">
+      <c r="I81" s="15" t="s">
         <v>186</v>
       </c>
       <c r="J81" s="22"/>
     </row>
     <row r="82" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12" t="s">
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="E82" s="12" t="s">
+      <c r="E82" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="F82" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G82" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H82" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I82" s="12"/>
+      <c r="F82" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I82" s="13"/>
       <c r="J82" s="21"/>
     </row>
     <row r="83" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14" t="s">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E83" s="14" t="s">
+      <c r="E83" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="F83" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G83" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H83" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I83" s="14"/>
+      <c r="F83" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83" s="15"/>
       <c r="J83" s="22"/>
     </row>
   </sheetData>
@@ -3691,11 +3694,11 @@
   <sheetPr/>
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72:C73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="22.125" customWidth="1"/>
@@ -3730,7 +3733,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
@@ -3767,32 +3770,32 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="16"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="18"/>
     </row>
     <row r="5" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="19" t="s">
@@ -3803,1735 +3806,1735 @@
       </c>
     </row>
     <row r="6" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="12"/>
+      <c r="F6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="13"/>
       <c r="J6" s="21"/>
     </row>
     <row r="7" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="14"/>
+      <c r="E7" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="15"/>
       <c r="J7" s="22"/>
     </row>
     <row r="8" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="12"/>
+      <c r="F8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="13"/>
       <c r="J8" s="21"/>
     </row>
     <row r="9" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="14"/>
+      <c r="F9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="15"/>
       <c r="J9" s="22"/>
     </row>
     <row r="10" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="12"/>
+      <c r="F10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="13"/>
       <c r="J10" s="21"/>
     </row>
     <row r="11" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="14"/>
+      <c r="F11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="15"/>
       <c r="J11" s="22"/>
     </row>
     <row r="12" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="12"/>
+      <c r="F12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="13"/>
       <c r="J12" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="14" t="s">
+      <c r="F13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="15" t="s">
         <v>42</v>
       </c>
       <c r="J13" s="22"/>
     </row>
     <row r="14" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="12"/>
+      <c r="F14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="13"/>
       <c r="J14" s="21"/>
     </row>
     <row r="15" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="14"/>
+      <c r="F15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="15"/>
       <c r="J15" s="22"/>
     </row>
     <row r="16" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="12"/>
+      <c r="F16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="13"/>
       <c r="J16" s="21"/>
     </row>
     <row r="17" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="14"/>
+      <c r="F17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="15"/>
       <c r="J17" s="22"/>
     </row>
     <row r="18" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="14"/>
+      <c r="F18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="15"/>
       <c r="J18" s="22"/>
     </row>
     <row r="19" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="15" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="15" t="s">
+      <c r="E19" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="15" t="s">
-        <v>194</v>
+      <c r="I19" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="J19" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="14"/>
+      <c r="F20" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="15"/>
       <c r="J20" s="22"/>
     </row>
     <row r="21" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="12"/>
+      <c r="F21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="13"/>
       <c r="J21" s="21"/>
     </row>
     <row r="22" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="14"/>
+      <c r="F22" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="15"/>
       <c r="J22" s="22"/>
     </row>
     <row r="23" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="12" t="s">
+      <c r="F23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="13" t="s">
         <v>68</v>
       </c>
       <c r="J23" s="21"/>
     </row>
     <row r="24" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="14" t="s">
+      <c r="F24" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="15" t="s">
         <v>70</v>
       </c>
       <c r="J24" s="22"/>
     </row>
     <row r="25" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="12"/>
+      <c r="F25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="13"/>
       <c r="J25" s="21"/>
     </row>
     <row r="26" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="14"/>
+      <c r="F26" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="15"/>
       <c r="J26" s="22"/>
     </row>
     <row r="27" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="12"/>
+      <c r="F27" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="13"/>
       <c r="J27" s="21"/>
     </row>
     <row r="28" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="14"/>
+      <c r="F28" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="15"/>
       <c r="J28" s="22"/>
     </row>
     <row r="29" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="12"/>
+      <c r="F29" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="13"/>
       <c r="J29" s="21"/>
     </row>
     <row r="30" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="14"/>
+      <c r="F30" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="15"/>
       <c r="J30" s="22"/>
     </row>
     <row r="31" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="12"/>
+      <c r="F31" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="13"/>
       <c r="J31" s="21"/>
     </row>
     <row r="32" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F32" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="14" t="s">
+      <c r="F32" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="15" t="s">
         <v>87</v>
       </c>
       <c r="J32" s="22"/>
     </row>
     <row r="33" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="12" t="s">
+      <c r="F33" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="13" t="s">
         <v>90</v>
       </c>
       <c r="J33" s="21"/>
     </row>
     <row r="34" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F34" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="14"/>
+      <c r="F34" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="15"/>
       <c r="J34" s="22"/>
     </row>
     <row r="35" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F35" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="12"/>
+      <c r="F35" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="13"/>
       <c r="J35" s="21"/>
     </row>
     <row r="36" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14" t="s">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" s="14"/>
+      <c r="F36" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="15"/>
       <c r="J36" s="22"/>
     </row>
     <row r="37" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="12"/>
+      <c r="F37" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="13"/>
       <c r="J37" s="21"/>
     </row>
     <row r="38" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14" t="s">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" s="14"/>
+      <c r="F38" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="15"/>
       <c r="J38" s="22"/>
     </row>
     <row r="39" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="12"/>
+      <c r="F39" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="13"/>
       <c r="J39" s="21"/>
     </row>
     <row r="40" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" s="14"/>
+      <c r="F40" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="15"/>
       <c r="J40" s="22"/>
     </row>
     <row r="41" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F41" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I41" s="12"/>
+      <c r="F41" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="13"/>
       <c r="J41" s="21"/>
     </row>
     <row r="42" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14" t="s">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I42" s="14"/>
+      <c r="F42" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="15"/>
       <c r="J42" s="22"/>
     </row>
     <row r="43" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12" t="s">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F43" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I43" s="12"/>
+      <c r="F43" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="13"/>
       <c r="J43" s="21"/>
     </row>
     <row r="44" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14" t="s">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="F44" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I44" s="14"/>
+      <c r="F44" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="15"/>
       <c r="J44" s="22"/>
     </row>
     <row r="45" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12" t="s">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F45" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45" s="12" t="s">
+      <c r="F45" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" s="13" t="s">
         <v>116</v>
       </c>
       <c r="J45" s="21"/>
     </row>
     <row r="46" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14" t="s">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I46" s="14"/>
+      <c r="F46" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="15"/>
       <c r="J46" s="22"/>
     </row>
     <row r="47" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I47" s="12"/>
+      <c r="F47" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="13"/>
       <c r="J47" s="21"/>
     </row>
     <row r="48" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F48" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H48" s="14" t="s">
+      <c r="F48" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I48" s="14" t="s">
+      <c r="I48" s="15" t="s">
         <v>124</v>
       </c>
       <c r="J48" s="22"/>
     </row>
     <row r="49" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="12" t="s">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F49" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I49" s="12"/>
+      <c r="F49" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="13"/>
       <c r="J49" s="21"/>
     </row>
     <row r="50" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14" t="s">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H50" s="12" t="s">
+      <c r="E50" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I50" s="14" t="s">
-        <v>196</v>
+      <c r="I50" s="15" t="s">
+        <v>197</v>
       </c>
       <c r="J50" s="22"/>
     </row>
     <row r="51" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12" t="s">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="F51" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I51" s="12"/>
+      <c r="F51" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="13"/>
       <c r="J51" s="21"/>
     </row>
     <row r="52" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="14" t="s">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F52" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H52" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I52" s="14"/>
+      <c r="F52" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" s="15"/>
       <c r="J52" s="22"/>
     </row>
     <row r="53" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="12" t="s">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I53" s="12"/>
+      <c r="E53" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="13"/>
       <c r="J53" s="21"/>
     </row>
     <row r="54" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14" t="s">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E54" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I54" s="14"/>
+      <c r="E54" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" s="15"/>
       <c r="J54" s="22"/>
     </row>
     <row r="55" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="12" t="s">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E55" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I55" s="12"/>
+      <c r="E55" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="13"/>
       <c r="J55" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="56" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="14" t="s">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E56" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H56" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I56" s="14"/>
+      <c r="E56" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="15"/>
       <c r="J56" s="22"/>
     </row>
     <row r="57" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="12" t="s">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F57" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H57" s="12" t="s">
+      <c r="F57" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I57" s="12" t="s">
-        <v>200</v>
+      <c r="I57" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="J57" s="21"/>
     </row>
     <row r="58" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="14" t="s">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="F58" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" s="12" t="s">
+      <c r="F58" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I58" s="12" t="s">
-        <v>200</v>
+      <c r="I58" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="J58" s="22"/>
     </row>
     <row r="59" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="12" t="s">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F59" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H59" s="12" t="s">
+      <c r="F59" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I59" s="12" t="s">
+      <c r="I59" s="13" t="s">
         <v>146</v>
       </c>
       <c r="J59" s="21"/>
     </row>
     <row r="60" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="14" t="s">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="F60" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H60" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I60" s="14"/>
+      <c r="F60" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" s="15"/>
       <c r="J60" s="22"/>
     </row>
     <row r="61" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="12" t="s">
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="F61" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I61" s="12"/>
+      <c r="F61" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I61" s="13"/>
       <c r="J61" s="21"/>
     </row>
     <row r="62" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14" t="s">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="F62" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H62" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I62" s="14"/>
+      <c r="F62" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" s="15"/>
       <c r="J62" s="22"/>
     </row>
     <row r="63" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="12" t="s">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E63" s="12" t="s">
+      <c r="E63" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="F63" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I63" s="12"/>
+      <c r="F63" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" s="13"/>
       <c r="J63" s="21"/>
     </row>
     <row r="64" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14" t="s">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="F64" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H64" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I64" s="14"/>
+      <c r="F64" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" s="15"/>
       <c r="J64" s="22"/>
     </row>
     <row r="65" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C65" s="12" t="s">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="E65" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F65" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I65" s="12"/>
+      <c r="F65" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65" s="13"/>
       <c r="J65" s="21"/>
     </row>
     <row r="66" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14" t="s">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E66" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="F66" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G66" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H66" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I66" s="14"/>
+      <c r="F66" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" s="15"/>
       <c r="J66" s="22"/>
     </row>
     <row r="67" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12" t="s">
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E67" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F67" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I67" s="12"/>
+      <c r="F67" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="13"/>
       <c r="J67" s="21"/>
     </row>
     <row r="68" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14" t="s">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="F68" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G68" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H68" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I68" s="14"/>
+      <c r="F68" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" s="15"/>
       <c r="J68" s="22"/>
     </row>
     <row r="69" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="12" t="s">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E69" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="F69" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H69" s="12" t="s">
+      <c r="F69" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H69" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I69" s="12" t="s">
+      <c r="I69" s="13" t="s">
         <v>165</v>
       </c>
       <c r="J69" s="21"/>
     </row>
     <row r="70" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="14" t="s">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D70" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="F70" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G70" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H70" s="14" t="s">
+      <c r="F70" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I70" s="14" t="s">
+      <c r="I70" s="15" t="s">
         <v>169</v>
       </c>
       <c r="J70" s="22"/>
     </row>
     <row r="71" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12" t="s">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="E71" s="12" t="s">
+      <c r="E71" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="F71" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H71" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I71" s="12"/>
+      <c r="F71" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I71" s="13"/>
       <c r="J71" s="21"/>
     </row>
     <row r="72" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="12" t="s">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D72" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E72" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="F72" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I72" s="12"/>
+      <c r="F72" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I72" s="13"/>
       <c r="J72" s="21"/>
     </row>
     <row r="73" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14" t="s">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="F73" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G73" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H73" s="14" t="s">
+      <c r="F73" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H73" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I73" s="14" t="s">
+      <c r="I73" s="15" t="s">
         <v>186</v>
       </c>
       <c r="J73" s="22"/>
     </row>
     <row r="74" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12" t="s">
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E74" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="F74" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G74" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I74" s="12"/>
+      <c r="F74" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I74" s="13"/>
       <c r="J74" s="21"/>
     </row>
     <row r="75" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14" t="s">
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="F75" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G75" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H75" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I75" s="14"/>
+      <c r="F75" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75" s="15"/>
       <c r="J75" s="22"/>
     </row>
     <row r="76" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="12" t="s">
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="D76" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="F76" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G76" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H76" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I76" s="12"/>
+      <c r="F76" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I76" s="13"/>
       <c r="J76" s="21"/>
     </row>
     <row r="77" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14" t="s">
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E77" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="F77" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G77" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H77" s="14" t="s">
+      <c r="F77" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H77" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I77" s="14" t="s">
+      <c r="I77" s="15" t="s">
         <v>186</v>
       </c>
       <c r="J77" s="22"/>
     </row>
     <row r="78" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12" t="s">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="E78" s="12" t="s">
+      <c r="E78" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="F78" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G78" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H78" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I78" s="12"/>
+      <c r="F78" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I78" s="13"/>
       <c r="J78" s="21"/>
     </row>
     <row r="79" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14" t="s">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="F79" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G79" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H79" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I79" s="14"/>
+      <c r="F79" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I79" s="15"/>
       <c r="J79" s="22"/>
     </row>
   </sheetData>
